--- a/reports/spambase/cross_under.xlsx
+++ b/reports/spambase/cross_under.xlsx
@@ -547,64 +547,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9016035219725873</v>
+        <v>0.910092288399039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9211460591607651</v>
+        <v>0.9133648361004683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9184927976104446</v>
+        <v>0.9196748160311379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9185907163848341</v>
+        <v>0.9198735024022379</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9214975448636428</v>
+        <v>0.9211387240356084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9220772510478393</v>
+        <v>0.9258617040686006</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9328109192079781</v>
+        <v>0.9342464270510249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9274560389266273</v>
+        <v>0.9298081858541627</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9489608944467994</v>
+        <v>0.9447422989967501</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9596759526906585</v>
+        <v>0.9548819558474732</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9580310256780845</v>
+        <v>0.9532801191996597</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9583745844775258</v>
+        <v>0.9547837377607494</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9515426734492016</v>
+        <v>0.9482165818849796</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9594557859999034</v>
+        <v>0.9569774372073223</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9594311557546853</v>
+        <v>0.9561630481055768</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9221230747491876</v>
+        <v>0.9324508972728558</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9258846413258177</v>
+        <v>0.9368603661132398</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9330304234715997</v>
+        <v>0.9426284741227271</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9302565399624223</v>
+        <v>0.9402622392507449</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9595284121019414</v>
+        <v>0.9561135437572217</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +614,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8773720130084491</v>
+        <v>0.8842961379255057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9214981099003871</v>
+        <v>0.9124478142495513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9198603768980976</v>
+        <v>0.9182770138697071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9186279515267104</v>
+        <v>0.9191195291736194</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8998133744164281</v>
+        <v>0.8990043030972648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9220693138998761</v>
+        <v>0.9255891265981937</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9321317403130135</v>
+        <v>0.933321451333389</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9274029450247425</v>
+        <v>0.9293546078689281</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9348883649273236</v>
+        <v>0.9291129843829731</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9595897209592263</v>
+        <v>0.9547260194720788</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9574952199424905</v>
+        <v>0.9526915808868418</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9587031605312597</v>
+        <v>0.9544526146734265</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9385482834861943</v>
+        <v>0.9348148156954668</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9595493021618711</v>
+        <v>0.9571544741240189</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9593740850662601</v>
+        <v>0.956044393537772</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8981439875869007</v>
+        <v>0.9137746064297173</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9254275671963668</v>
+        <v>0.9364919046366945</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9312043520726664</v>
+        <v>0.9421744944103946</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9287178124270372</v>
+        <v>0.9397955356188024</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9594967887708963</v>
+        <v>0.9561954275079475</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +681,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8738525956993003</v>
+        <v>0.9068673998616422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9176042001877321</v>
+        <v>0.9225506500763312</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9165950307251933</v>
+        <v>0.9344966001851384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9146535539700187</v>
+        <v>0.9281690268843193</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9079498323104027</v>
+        <v>0.9168752623487229</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9222058123167052</v>
+        <v>0.9290909528743083</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9412010885720808</v>
+        <v>0.9461909279510965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.927940790646704</v>
+        <v>0.9350384072659136</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9475022461065504</v>
+        <v>0.9487043959412707</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9602859269177045</v>
+        <v>0.9578724914895649</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9654022725984821</v>
+        <v>0.9645404137030164</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9622543343652148</v>
+        <v>0.9613424956887821</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9414206062952677</v>
+        <v>0.9374593211098921</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9573454332483365</v>
+        <v>0.9536544214054961</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9609222894695848</v>
+        <v>0.958507808846116</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9293253704980318</v>
+        <v>0.928854727198883</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9315748962041478</v>
+        <v>0.9419979001845937</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9565884857409255</v>
+        <v>0.9494370988213761</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9491092139370587</v>
+        <v>0.9470924915839608</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9602331616982188</v>
+        <v>0.9548696029407185</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +748,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8831006621030185</v>
+        <v>0.8637313432835821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9267238964551339</v>
+        <v>0.9030098034433987</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92298971312663</v>
+        <v>0.9031590498951374</v>
       </c>
       <c r="E5" t="n">
-        <v>0.923521201584082</v>
+        <v>0.9106023508754818</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8923353159016945</v>
+        <v>0.8823880597014926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9223423162368397</v>
+        <v>0.9224842705945473</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9235714285714286</v>
+        <v>0.9211059357167245</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9271655558775237</v>
+        <v>0.9240662342096282</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9236275389967455</v>
+        <v>0.9107462686567165</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9586414565826331</v>
+        <v>0.9518750914500319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9507884188158022</v>
+        <v>0.9413778471443205</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9560426929392447</v>
+        <v>0.9478851875335319</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9360268207833015</v>
+        <v>0.9326865671641792</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9619337390128464</v>
+        <v>0.9609505925962054</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9580066164396793</v>
+        <v>0.9538009071843147</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8695808551228817</v>
+        <v>0.899776119402985</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9196863228049843</v>
+        <v>0.9314139394234993</v>
       </c>
       <c r="S5" t="n">
-        <v>0.90746232975949</v>
+        <v>0.9352570355557722</v>
       </c>
       <c r="T5" t="n">
-        <v>0.909526707234618</v>
+        <v>0.9328929912695705</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9589365401332948</v>
+        <v>0.9577449641515878</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/cross_under.xlsx
+++ b/reports/spambase/cross_under.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,102 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DT_NM</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DT_BrdSMOTE</t>
+          <t>DT_RUS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DT_GAN</t>
+          <t>LR_NM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DT_SMOTE</t>
+          <t>LR_RUS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>RF_NM</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LR_BrdSMOTE</t>
+          <t>RF_RUS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LR_GAN</t>
+          <t>XGB_NM</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LR_SMOTE</t>
+          <t>XGB_RF_NM</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>XGB_RF_RUS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>RF_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>RF_GAN</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>RF_SMOTE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>XGB</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_GAN</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF_GAN</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_RF_SMOTE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_SMOTE</t>
+          <t>XGB_RUS</t>
         </is>
       </c>
     </row>
@@ -547,64 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.910092288399039</v>
+        <v>0.9165923493279816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9133648361004683</v>
+        <v>0.9267005412637598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9196748160311379</v>
+        <v>0.9226567536337652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9198735024022379</v>
+        <v>0.9303751140302866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9211387240356084</v>
+        <v>0.957816639299398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9258617040686006</v>
+        <v>0.9602800583835066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9342464270510249</v>
+        <v>0.9600835005777535</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9298081858541627</v>
+        <v>0.9353805266678831</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9447422989967501</v>
+        <v>0.9448215045916197</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9548819558474732</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9532801191996597</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9547837377607494</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.9482165818849796</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9569774372073223</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.9561630481055768</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9324508972728558</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.9368603661132398</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9426284741227271</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.9402622392507449</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.9561135437572217</v>
+        <v>0.9624747917046769</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8842961379255057</v>
+        <v>0.9158754434635316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9124478142495513</v>
+        <v>0.926270921422314</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9182770138697071</v>
+        <v>0.922425969600328</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9191195291736194</v>
+        <v>0.9295537053255848</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8990043030972648</v>
+        <v>0.9578489559877806</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9255891265981937</v>
+        <v>0.9599970526384538</v>
       </c>
       <c r="H3" t="n">
-        <v>0.933321451333389</v>
+        <v>0.9603636531262386</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9293546078689281</v>
+        <v>0.9351378011080073</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9291129843829731</v>
+        <v>0.94447419063557</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9547260194720788</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9526915808868418</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9544526146734265</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9348148156954668</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.9571544741240189</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.956044393537772</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9137746064297173</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.9364919046366945</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.9421744944103946</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.9397955356188024</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.9561954275079475</v>
+        <v>0.9625373945142337</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9068673998616422</v>
+        <v>0.9236738137620368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9225506500763312</v>
+        <v>0.9318189329871015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9344966001851384</v>
+        <v>0.9253053320350871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9281690268843193</v>
+        <v>0.9404930053583219</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9168752623487229</v>
+        <v>0.9578362523946783</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9290909528743083</v>
+        <v>0.9663422824925745</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9461909279510965</v>
+        <v>0.9544331632335792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9350384072659136</v>
+        <v>0.9390872261125729</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9487043959412707</v>
+        <v>0.9503026270399876</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9578724914895649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9645404137030164</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9613424956887821</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9374593211098921</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.9536544214054961</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.958507808846116</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.928854727198883</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.9419979001845937</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9494370988213761</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.9470924915839608</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.9548696029407185</v>
+        <v>0.960834907770962</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +608,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8637313432835821</v>
+        <v>0.9085831341754868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9030098034433987</v>
+        <v>0.9212459152319173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9031590498951374</v>
+        <v>0.9198761156903867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9106023508754818</v>
+        <v>0.9191786567819343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8823880597014926</v>
+        <v>0.9580393113202947</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9224842705945473</v>
+        <v>0.9539396673657514</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9211059357167245</v>
+        <v>0.9665190459932691</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9240662342096282</v>
+        <v>0.9315049017216992</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9107462686567165</v>
+        <v>0.9390403843340001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9518750914500319</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9413778471443205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9478851875335319</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.9326865671641792</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.9609505925962054</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.9538009071843147</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.899776119402985</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9314139394234993</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9352570355557722</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.9328929912695705</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.9577449641515878</v>
+        <v>0.9644432522069941</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/cross_under.xlsx
+++ b/reports/spambase/cross_under.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -130,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +420,990 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT_NM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_5</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_6</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_7</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DT_RUS_9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LR_NM</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_10</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_6</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_8</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>LR_RUS_9</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RF_NM</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_10</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_8</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_RUS_9</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_NM</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_NM</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_10</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_7</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_8</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_RUS_9</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_10</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_3</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_4</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_5</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_6</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_7</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_8</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RUS_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9056390977443608</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9115288220551379</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9261654135338346</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9238095238095235</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9255388471177945</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9270676691729323</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9240601503759399</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.917468671679198</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9275438596491228</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9261654135338346</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9238095238095235</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9255388471177945</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9270676691729323</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9240601503759399</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9522556390977445</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.950952380952381</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9261654135338346</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9238095238095235</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9255388471177945</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.9270676691729323</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9240601503759399</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.9581954887218045</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.9310776942355891</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9383709273182957</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.9261654135338346</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.9238095238095235</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.9255388471177945</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9270676691729323</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9240601503759399</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9273433583959898</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9535839598997492</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.9245864661654134</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.9261654135338346</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.9238095238095235</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.9255388471177945</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9270676691729323</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.9240601503759399</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.9268421052631579</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.9273433583959898</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9044973518251532</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9101342259240726</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.923935370729263</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9255153822375131</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.92302649229802</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9249087598068241</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9233510431726532</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9262872486568735</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9267794150823769</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9176336964094166</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9271158530742618</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.923935370729263</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9255153822375131</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.92302649229802</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9249087598068241</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9233510431726532</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9262872486568735</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9267794150823769</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.9520862371132849</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9504853858010229</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.923935370729263</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.9255153822375131</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.92302649229802</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.9249087598068241</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9233510431726532</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9262872486568735</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.9267794150823769</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.9584223882433056</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.9305898049015059</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.938003393036603</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.923935370729263</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.9255153822375131</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.92302649229802</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.9249087598068241</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.9233510431726532</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.9262872486568735</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.9267794150823769</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9535130516404735</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.9263388007278589</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.923935370729263</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.9255153822375131</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.92302649229802</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.9249087598068241</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.9264982239233861</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.9233510431726532</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.9262872486568735</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.9267794150823769</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9153843815624844</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.924470089737691</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9325731289370077</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9316806687667498</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9335988326762902</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9320944641527804</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.932655680482805</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.93380794610785</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9319402544735076</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9333330813399823</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9163035118538246</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9325767888242426</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9325731289370077</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9316806687667498</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9335988326762902</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9320944641527804</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.932655680482805</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.93380794610785</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9319402544735076</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9333330813399823</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9552568393549893</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.9595283657893394</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9325731289370077</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.9316806687667498</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.9335988326762902</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.9320944641527804</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.932655680482805</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.93380794610785</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9319402544735076</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.9333330813399823</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.9535527970678142</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.9369899407935443</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.9436425873684429</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.9325731289370077</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.9316806687667498</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.9335988326762902</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.9320944641527804</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.932655680482805</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.93380794610785</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.9319402544735076</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.9333330813399823</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.9339126167749785</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.955099943876267</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.9325731289370077</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.9316806687667498</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.9335988326762902</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.9320944641527804</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.932655680482805</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.93380794610785</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.9319402544735076</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.9333330813399823</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.9339126167749785</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8942934673366834</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.896782663316583</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9205492462311559</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9166851758793969</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9179447236180904</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9145296482412061</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9176402010050252</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9152816582914574</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9196939698492461</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9200912060301509</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9192492462311559</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9220515075376884</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9205492462311559</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9166851758793969</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9179447236180904</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9145296482412061</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9176402010050252</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9152816582914574</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9196939698492461</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9200912060301509</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.949128391959799</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.9418037688442211</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9205492462311559</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.9166851758793969</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.9179447236180904</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9145296482412061</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9176402010050252</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9152816582914574</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.9196939698492461</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.9200912060301509</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.9635103015075376</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.9245123115577889</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.9327248743718592</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.9205492462311559</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.9166851758793969</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.9179447236180904</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.9145296482412061</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.9176402010050252</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.9152816582914574</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.9196939698492461</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.9200912060301509</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9521213567839194</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.9205492462311559</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.9166851758793969</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.9179447236180904</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.9145296482412061</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.9176402010050252</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.9196467336683416</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.9152816582914574</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.9196939698492461</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.9200912060301509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/reports/spambase/cross_under.xlsx
+++ b/reports/spambase/cross_under.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Metric</t>
   </si>
@@ -216,7 +216,19 @@
     <t>xgb_rf</t>
   </si>
   <si>
-    <t>avg</t>
+    <t>DT_RUS</t>
+  </si>
+  <si>
+    <t>LR_RUS</t>
+  </si>
+  <si>
+    <t>RF_RUS</t>
+  </si>
+  <si>
+    <t>XGB_RF_RUS</t>
+  </si>
+  <si>
+    <t>XGB_RUS</t>
   </si>
 </sst>
 </file>
@@ -593,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49:I50"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,7 +616,7 @@
     <col min="2" max="12" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,8 +653,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -683,8 +701,11 @@
         <f>SUM(C2:L2)/10</f>
         <v>0.92437844611528808</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>0.9056390977443608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -725,8 +746,11 @@
         <f t="shared" ref="M3:M5" si="0">SUM(C3:L3)/10</f>
         <v>0.92367749625588425</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>0.90449735182515323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -767,8 +791,11 @@
         <f t="shared" si="0"/>
         <v>0.93200667634496437</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>0.91538438156248436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -809,8 +836,11 @@
         <f t="shared" si="0"/>
         <v>0.9158845226130653</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>0.89429346733668336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>60</v>
       </c>
@@ -827,7 +857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C8">
         <f>SUM(C2:L2)/10</f>
         <v>0.92437844611528808</v>
@@ -849,7 +879,7 @@
         <v>0.92706265664160414</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -884,10 +914,13 @@
         <v>22</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.91746867167919799</v>
       </c>
@@ -925,8 +958,11 @@
         <f>SUM(C11:L11)/10</f>
         <v>0.92597994987468657</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <v>0.91746867167919799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.91763369640941661</v>
       </c>
@@ -964,8 +1000,11 @@
         <f t="shared" ref="M12:M14" si="1">SUM(C12:L12)/10</f>
         <v>0.92537565897090313</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>0.91763369640941661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.91630351185382464</v>
       </c>
@@ -1003,8 +1042,11 @@
         <f t="shared" si="1"/>
         <v>0.93281734625361956</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <v>0.91630351185382464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.91924924623115589</v>
       </c>
@@ -1042,8 +1084,11 @@
         <f t="shared" si="1"/>
         <v>0.91841140703517588</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>0.91924924623115589</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1078,10 +1123,13 @@
         <v>33</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0.95225563909774447</v>
       </c>
@@ -1119,8 +1167,11 @@
         <f>SUM(C20:L20)/10</f>
         <v>0.92832080200501255</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>0.95225563909774447</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.95208623711328488</v>
       </c>
@@ -1158,8 +1209,11 @@
         <f t="shared" ref="M21:M23" si="2">SUM(C21:L21)/10</f>
         <v>0.92771261224357926</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <v>0.95208623711328488</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0.95525683935498928</v>
       </c>
@@ -1197,8 +1251,11 @@
         <f t="shared" si="2"/>
         <v>0.93551250395012919</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>0.95525683935498928</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0.94912839195979903</v>
       </c>
@@ -1236,8 +1293,11 @@
         <f t="shared" si="2"/>
         <v>0.92038663316582914</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N23">
+        <v>0.94912839195979903</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1272,10 +1332,13 @@
         <v>45</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0.93107769423558906</v>
       </c>
@@ -1313,8 +1376,11 @@
         <f>SUM(C30:L30)/10</f>
         <v>0.92706265664160414</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N30">
+        <v>0.93107769423558906</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.93058980490150589</v>
       </c>
@@ -1352,8 +1418,11 @@
         <f t="shared" ref="M31:M33" si="3">SUM(C31:L31)/10</f>
         <v>0.92646441296713733</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N31">
+        <v>0.93058980490150589</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0.93698994079354425</v>
       </c>
@@ -1391,8 +1460,11 @@
         <f t="shared" si="3"/>
         <v>0.93392392610803954</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <v>0.93698994079354425</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.9245123115577889</v>
       </c>
@@ -1430,8 +1502,11 @@
         <f t="shared" si="3"/>
         <v>0.91947874371859295</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N33">
+        <v>0.9245123115577889</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1466,10 +1541,13 @@
         <v>55</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0.95819548872180449</v>
       </c>
@@ -1507,8 +1585,11 @@
         <f>SUM(C38:L38)/10</f>
         <v>0.9285839598997494</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N38">
+        <v>0.95819548872180449</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.95842238824330561</v>
       </c>
@@ -1546,8 +1627,11 @@
         <f t="shared" ref="M39:M41" si="4">SUM(C39:L39)/10</f>
         <v>0.92801537882752427</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N39">
+        <v>0.95842238824330561</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0.95355279706781415</v>
       </c>
@@ -1585,8 +1669,11 @@
         <f t="shared" si="4"/>
         <v>0.935069661758822</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N40">
+        <v>0.95355279706781415</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0.96351030150753758</v>
       </c>
@@ -1623,6 +1710,9 @@
       <c r="M41">
         <f t="shared" si="4"/>
         <v>0.92141839195979891</v>
+      </c>
+      <c r="N41">
+        <v>0.96351030150753758</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/cross_under.xlsx
+++ b/reports/spambase/cross_under.xlsx
@@ -234,12 +234,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -288,6 +294,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -592,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,7 +645,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -676,7 +686,7 @@
       <c r="K2">
         <v>0.91268170426065154</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>0.91441102756892234</v>
       </c>
       <c r="M2">
@@ -718,7 +728,7 @@
       <c r="K3">
         <v>0.91126414671352629</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>0.91353123110129619</v>
       </c>
       <c r="M3">
@@ -760,7 +770,7 @@
       <c r="K4">
         <v>0.92647490522333686</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>0.9232485922466096</v>
       </c>
       <c r="M4">
@@ -802,7 +812,7 @@
       <c r="K5">
         <v>0.89689472361809064</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>0.90450854271356784</v>
       </c>
       <c r="M5">
@@ -814,7 +824,7 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -852,7 +862,7 @@
       <c r="B10">
         <v>0.91746867167919799</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>0.92754385964912278</v>
       </c>
       <c r="D10">
@@ -891,7 +901,7 @@
       <c r="B11">
         <v>0.91763369640941661</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>0.92711585307426181</v>
       </c>
       <c r="D11">
@@ -930,7 +940,7 @@
       <c r="B12">
         <v>0.91630351185382464</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>0.93257678882424255</v>
       </c>
       <c r="D12">
@@ -969,7 +979,7 @@
       <c r="B13">
         <v>0.91924924623115589</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>0.92205150753768839</v>
       </c>
       <c r="D13">
@@ -1008,7 +1018,7 @@
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1046,7 +1056,7 @@
       <c r="B18">
         <v>0.95225563909774447</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>0.95095238095238099</v>
       </c>
       <c r="D18">
@@ -1085,7 +1095,7 @@
       <c r="B19">
         <v>0.95208623711328488</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>0.95048538580102293</v>
       </c>
       <c r="D19">
@@ -1124,7 +1134,7 @@
       <c r="B20">
         <v>0.95525683935498928</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>0.95952836578933942</v>
       </c>
       <c r="D20">
@@ -1163,7 +1173,7 @@
       <c r="B21">
         <v>0.94912839195979903</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>0.94180376884422112</v>
       </c>
       <c r="D21">
@@ -1229,7 +1239,7 @@
       <c r="K25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="3" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -1267,7 +1277,7 @@
       <c r="K26">
         <v>0.9385964912280701</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>0.939248120300752</v>
       </c>
       <c r="M26">
@@ -1306,7 +1316,7 @@
       <c r="K27">
         <v>0.93826467953137271</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>0.93893571251378549</v>
       </c>
       <c r="M27">
@@ -1345,7 +1355,7 @@
       <c r="K28">
         <v>0.94323939289909897</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>0.94398320902021782</v>
       </c>
       <c r="M28">
@@ -1384,7 +1394,7 @@
       <c r="K29">
         <v>0.93357763819095463</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>0.934227135678392</v>
       </c>
       <c r="M29">
@@ -1402,7 +1412,7 @@
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1440,7 +1450,7 @@
       <c r="D34">
         <v>0.95323308270676688</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>0.954310776942356</v>
       </c>
       <c r="F34">
@@ -1479,7 +1489,7 @@
       <c r="D35">
         <v>0.95321865157140673</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>0.95426231913492177</v>
       </c>
       <c r="F35">
@@ -1518,7 +1528,7 @@
       <c r="D36">
         <v>0.95408229827387292</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>0.95510031963897035</v>
       </c>
       <c r="F36">
@@ -1557,7 +1567,7 @@
       <c r="D37">
         <v>0.95258165829145713</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>0.95362587939698484</v>
       </c>
       <c r="F37">
